--- a/Submissions/Rating Example1_Microsoft.xlsx
+++ b/Submissions/Rating Example1_Microsoft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\Falcon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\Falcon\Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FC898-0687-4F70-9DA0-A0E12DEC5C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158BD775-D33A-4604-A9B1-DA0C774BA399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A55E5FDA-B46E-4E4C-B0FC-D9DD7C24980F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="7" activeTab="8" xr2:uid="{A55E5FDA-B46E-4E4C-B0FC-D9DD7C24980F}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="11" r:id="rId1"/>
@@ -2672,7 +2672,7 @@
     <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00000"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2998,6 +2998,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3054,7 +3061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -3530,6 +3537,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3538,7 +3560,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4512,161 +4534,164 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6429,8 +6454,8 @@
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6473,7 +6498,7 @@
       </c>
       <c r="B8" s="396">
         <f>'Step 2'!C30</f>
-        <v>1252000</v>
+        <v>587000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6620,11 +6645,11 @@
         <v>318</v>
       </c>
       <c r="B27" s="247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="243" t="str">
         <f>IF($B$6="Georgia","N/A - Leave cell blank",VLOOKUP(B27,'XS Rate Tables Sections A-F'!$H$29:$I$33,2,FALSE))</f>
-        <v>Low/Medium Risk</v>
+        <v>Low Risk</v>
       </c>
       <c r="E27" s="258"/>
     </row>
@@ -6646,11 +6671,11 @@
         <v>320</v>
       </c>
       <c r="B29" s="247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="243" t="str">
         <f>IF($B$6="Georgia","N/A - Leave cell blank",VLOOKUP(B29,'XS Rate Tables Sections A-F'!$H$29:$I$33,2,FALSE))</f>
-        <v>Low Risk</v>
+        <v>Medium Risk</v>
       </c>
       <c r="E29" s="258"/>
     </row>
@@ -6659,11 +6684,11 @@
         <v>321</v>
       </c>
       <c r="B30" s="247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="243" t="str">
         <f>IF($B$6="Georgia",VLOOKUP(B30,'XS RateTables SectionA-Georgia'!$H$16:$I$20,2,FALSE),VLOOKUP(B30,'XS Rate Tables Sections A-F'!$H$29:$I$33,2,FALSE))</f>
-        <v>Low/Medium Risk</v>
+        <v>Medium Risk</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="244" customFormat="1" x14ac:dyDescent="0.2">
@@ -6671,11 +6696,11 @@
         <v>322</v>
       </c>
       <c r="B31" s="247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="243" t="str">
         <f>IF($B$6="Georgia",VLOOKUP(B31,'XS RateTables SectionA-Georgia'!$H$16:$I$20,2,FALSE),VLOOKUP(B31,'XS Rate Tables Sections A-F'!$H$29:$I$33,2,FALSE))</f>
-        <v>Low Risk</v>
+        <v>Low/Medium Risk</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="244" customFormat="1" x14ac:dyDescent="0.2">
@@ -6683,11 +6708,11 @@
         <v>323</v>
       </c>
       <c r="B32" s="247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="243" t="str">
         <f>IF($B$6="Georgia","N/A - Leave cell blank",VLOOKUP(B32,'XS Rate Tables Sections A-F'!$H$29:$I$33,2,FALSE))</f>
-        <v>Low/Medium Risk</v>
+        <v>Medium Risk</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6696,17 +6721,17 @@
       </c>
       <c r="B34" s="308">
         <f>ROUND(AVERAGE(B26:B32),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="336" t="str">
         <f>IF($B$6="Georgia",VLOOKUP(B34,'XS RateTables SectionA-Georgia'!$H$16:$I$20,2,FALSE),VLOOKUP(B34,'XS Rate Tables Sections A-F'!$H$29:$I$33,2,FALSE))</f>
-        <v>Low Risk</v>
+        <v>Low/Medium Risk</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="240" t="str">
         <f>"Select Percentage Factor Corresponding to Range of "&amp;C34&amp;":"</f>
-        <v>Select Percentage Factor Corresponding to Range of Low Risk:</v>
+        <v>Select Percentage Factor Corresponding to Range of Low/Medium Risk:</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6723,7 +6748,7 @@
       </c>
       <c r="C38" s="354" t="str">
         <f>VLOOKUP(B34,'XS Rate Tables Sections A-F'!$H$29:$J$33,3,FALSE)</f>
-        <v>40-55%</v>
+        <v>55-65%</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -11325,11 +11350,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="417"/>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
+      <c r="A1" s="427"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
+      <c r="D1" s="427"/>
+      <c r="E1" s="427"/>
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
@@ -11344,13 +11369,13 @@
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="417" t="s">
+      <c r="A2" s="427" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="417"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
-      <c r="E2" s="417"/>
+      <c r="B2" s="427"/>
+      <c r="C2" s="427"/>
+      <c r="D2" s="427"/>
+      <c r="E2" s="427"/>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -11365,13 +11390,13 @@
       <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="417" t="s">
+      <c r="A3" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417"/>
+      <c r="B3" s="427"/>
+      <c r="C3" s="427"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="427"/>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
@@ -11386,406 +11411,406 @@
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="417" t="s">
+      <c r="A4" s="427" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="417"/>
-      <c r="C4" s="417"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="427"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="417" t="s">
+      <c r="A5" s="427" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="417"/>
-      <c r="C5" s="417"/>
-      <c r="D5" s="418" t="s">
+      <c r="B5" s="427"/>
+      <c r="C5" s="427"/>
+      <c r="D5" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="418"/>
+      <c r="E5" s="452"/>
     </row>
     <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="419" t="s">
+      <c r="A6" s="450" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="420"/>
-      <c r="C6" s="420"/>
-      <c r="D6" s="422" t="s">
+      <c r="B6" s="451"/>
+      <c r="C6" s="451"/>
+      <c r="D6" s="431" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="423"/>
+      <c r="E6" s="432"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="417" t="s">
+      <c r="A7" s="427" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="417"/>
-      <c r="C7" s="417"/>
-      <c r="D7" s="421"/>
-      <c r="E7" s="421"/>
+      <c r="B7" s="427"/>
+      <c r="C7" s="427"/>
+      <c r="D7" s="429"/>
+      <c r="E7" s="429"/>
     </row>
     <row r="8" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="419" t="s">
+      <c r="A8" s="450" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="420"/>
-      <c r="C8" s="420"/>
-      <c r="D8" s="422" t="s">
+      <c r="B8" s="451"/>
+      <c r="C8" s="451"/>
+      <c r="D8" s="431" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="423"/>
+      <c r="E8" s="432"/>
     </row>
     <row r="9" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="417" t="s">
+      <c r="A9" s="427" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="417"/>
-      <c r="C9" s="417"/>
-      <c r="D9" s="424"/>
-      <c r="E9" s="424"/>
+      <c r="B9" s="427"/>
+      <c r="C9" s="427"/>
+      <c r="D9" s="428"/>
+      <c r="E9" s="428"/>
     </row>
     <row r="10" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="425" t="s">
+      <c r="A10" s="444" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="426"/>
-      <c r="C10" s="426"/>
-      <c r="D10" s="431" t="s">
+      <c r="B10" s="445"/>
+      <c r="C10" s="445"/>
+      <c r="D10" s="436" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="432"/>
+      <c r="E10" s="437"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="427" t="s">
+      <c r="A11" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="428"/>
-      <c r="C11" s="428"/>
-      <c r="D11" s="433" t="s">
+      <c r="B11" s="447"/>
+      <c r="C11" s="447"/>
+      <c r="D11" s="439" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="434"/>
+      <c r="E11" s="440"/>
     </row>
     <row r="12" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="429" t="s">
+      <c r="A12" s="448" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="430"/>
-      <c r="C12" s="430"/>
-      <c r="D12" s="435" t="s">
+      <c r="B12" s="449"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="442" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="436"/>
+      <c r="E12" s="443"/>
     </row>
     <row r="13" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="417" t="s">
+      <c r="A13" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="417"/>
-      <c r="C13" s="417"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="424"/>
+      <c r="B13" s="427"/>
+      <c r="C13" s="427"/>
+      <c r="D13" s="428"/>
+      <c r="E13" s="428"/>
     </row>
     <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="437" t="s">
+      <c r="A14" s="435" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="431"/>
-      <c r="C14" s="431"/>
-      <c r="D14" s="431" t="s">
+      <c r="B14" s="436"/>
+      <c r="C14" s="436"/>
+      <c r="D14" s="436" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="432"/>
+      <c r="E14" s="437"/>
     </row>
     <row r="15" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="438" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="433"/>
-      <c r="C15" s="433"/>
-      <c r="D15" s="433" t="s">
+      <c r="B15" s="439"/>
+      <c r="C15" s="439"/>
+      <c r="D15" s="439" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="434"/>
+      <c r="E15" s="440"/>
     </row>
     <row r="16" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="439" t="s">
+      <c r="A16" s="441" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="435"/>
-      <c r="C16" s="435"/>
-      <c r="D16" s="435" t="s">
+      <c r="B16" s="442"/>
+      <c r="C16" s="442"/>
+      <c r="D16" s="442" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="436"/>
+      <c r="E16" s="443"/>
     </row>
     <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="417" t="s">
+      <c r="A17" s="427" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="417"/>
-      <c r="C17" s="417"/>
-      <c r="D17" s="424"/>
-      <c r="E17" s="424"/>
+      <c r="B17" s="427"/>
+      <c r="C17" s="427"/>
+      <c r="D17" s="428"/>
+      <c r="E17" s="428"/>
     </row>
     <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="437" t="s">
+      <c r="A18" s="435" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="431"/>
-      <c r="C18" s="431"/>
-      <c r="D18" s="431" t="s">
+      <c r="B18" s="436"/>
+      <c r="C18" s="436"/>
+      <c r="D18" s="436" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="432"/>
+      <c r="E18" s="437"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="439" t="s">
+      <c r="A19" s="441" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="435"/>
-      <c r="C19" s="435"/>
-      <c r="D19" s="435" t="s">
+      <c r="B19" s="442"/>
+      <c r="C19" s="442"/>
+      <c r="D19" s="442" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="436"/>
+      <c r="E19" s="443"/>
     </row>
     <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="417" t="s">
+      <c r="A20" s="427" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="417"/>
-      <c r="C20" s="417"/>
-      <c r="D20" s="424"/>
-      <c r="E20" s="424"/>
+      <c r="B20" s="427"/>
+      <c r="C20" s="427"/>
+      <c r="D20" s="428"/>
+      <c r="E20" s="428"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="437" t="s">
+      <c r="A21" s="435" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="431"/>
-      <c r="C21" s="431"/>
-      <c r="D21" s="431" t="s">
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="432"/>
+      <c r="E21" s="437"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="438" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="433"/>
-      <c r="C22" s="433"/>
-      <c r="D22" s="433" t="s">
+      <c r="B22" s="439"/>
+      <c r="C22" s="439"/>
+      <c r="D22" s="439" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="434"/>
+      <c r="E22" s="440"/>
     </row>
     <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="439" t="s">
+      <c r="A23" s="441" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="435"/>
-      <c r="C23" s="435"/>
-      <c r="D23" s="435" t="s">
+      <c r="B23" s="442"/>
+      <c r="C23" s="442"/>
+      <c r="D23" s="442" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="436"/>
+      <c r="E23" s="443"/>
     </row>
     <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="417" t="s">
+      <c r="A24" s="427" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="417"/>
-      <c r="C24" s="417"/>
-      <c r="D24" s="424"/>
-      <c r="E24" s="424"/>
+      <c r="B24" s="427"/>
+      <c r="C24" s="427"/>
+      <c r="D24" s="428"/>
+      <c r="E24" s="428"/>
     </row>
     <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="437" t="s">
+      <c r="A25" s="435" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="431"/>
-      <c r="C25" s="431"/>
-      <c r="D25" s="431" t="s">
+      <c r="B25" s="436"/>
+      <c r="C25" s="436"/>
+      <c r="D25" s="436" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="432"/>
+      <c r="E25" s="437"/>
     </row>
     <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="438" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="433"/>
-      <c r="C26" s="433"/>
-      <c r="D26" s="433" t="s">
+      <c r="B26" s="439"/>
+      <c r="C26" s="439"/>
+      <c r="D26" s="439" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="434"/>
+      <c r="E26" s="440"/>
     </row>
     <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="439" t="s">
+      <c r="A27" s="441" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="435"/>
-      <c r="C27" s="435"/>
-      <c r="D27" s="435" t="s">
+      <c r="B27" s="442"/>
+      <c r="C27" s="442"/>
+      <c r="D27" s="442" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="436"/>
+      <c r="E27" s="443"/>
     </row>
     <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="417" t="s">
+      <c r="A28" s="427" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="417"/>
-      <c r="C28" s="417"/>
-      <c r="D28" s="424"/>
-      <c r="E28" s="424"/>
+      <c r="B28" s="427"/>
+      <c r="C28" s="427"/>
+      <c r="D28" s="428"/>
+      <c r="E28" s="428"/>
     </row>
     <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="442" t="s">
+      <c r="A29" s="430" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="422"/>
-      <c r="C29" s="422"/>
-      <c r="D29" s="422" t="s">
+      <c r="B29" s="431"/>
+      <c r="C29" s="431"/>
+      <c r="D29" s="431" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="423"/>
+      <c r="E29" s="432"/>
     </row>
     <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="417" t="s">
+      <c r="A30" s="427" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="417"/>
-      <c r="C30" s="417"/>
-      <c r="D30" s="421"/>
-      <c r="E30" s="421"/>
+      <c r="B30" s="427"/>
+      <c r="C30" s="427"/>
+      <c r="D30" s="429"/>
+      <c r="E30" s="429"/>
     </row>
     <row r="31" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="449" t="s">
+      <c r="A31" s="419" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="452">
+      <c r="B31" s="422">
         <v>0</v>
       </c>
-      <c r="C31" s="452"/>
-      <c r="D31" s="443">
+      <c r="C31" s="422"/>
+      <c r="D31" s="433">
         <v>1</v>
       </c>
-      <c r="E31" s="444"/>
+      <c r="E31" s="434"/>
     </row>
     <row r="32" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="450"/>
-      <c r="B32" s="447">
+      <c r="A32" s="420"/>
+      <c r="B32" s="417">
         <v>0.05</v>
       </c>
-      <c r="C32" s="447"/>
-      <c r="D32" s="440" t="s">
+      <c r="C32" s="417"/>
+      <c r="D32" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="441"/>
+      <c r="E32" s="424"/>
     </row>
     <row r="33" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="450"/>
-      <c r="B33" s="447">
+      <c r="A33" s="420"/>
+      <c r="B33" s="417">
         <v>0.1</v>
       </c>
-      <c r="C33" s="447"/>
-      <c r="D33" s="440" t="s">
+      <c r="C33" s="417"/>
+      <c r="D33" s="423" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="441"/>
+      <c r="E33" s="424"/>
     </row>
     <row r="34" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="450"/>
-      <c r="B34" s="447">
+      <c r="A34" s="420"/>
+      <c r="B34" s="417">
         <v>0.15</v>
       </c>
-      <c r="C34" s="447"/>
-      <c r="D34" s="440" t="s">
+      <c r="C34" s="417"/>
+      <c r="D34" s="423" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="441"/>
+      <c r="E34" s="424"/>
     </row>
     <row r="35" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="450"/>
-      <c r="B35" s="447">
+      <c r="A35" s="420"/>
+      <c r="B35" s="417">
         <v>0.2</v>
       </c>
-      <c r="C35" s="447"/>
-      <c r="D35" s="440" t="s">
+      <c r="C35" s="417"/>
+      <c r="D35" s="423" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="441"/>
+      <c r="E35" s="424"/>
     </row>
     <row r="36" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="450"/>
-      <c r="B36" s="447">
+      <c r="A36" s="420"/>
+      <c r="B36" s="417">
         <v>0.25</v>
       </c>
-      <c r="C36" s="447"/>
-      <c r="D36" s="440" t="s">
+      <c r="C36" s="417"/>
+      <c r="D36" s="423" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="441"/>
+      <c r="E36" s="424"/>
     </row>
     <row r="37" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="450"/>
-      <c r="B37" s="447">
+      <c r="A37" s="420"/>
+      <c r="B37" s="417">
         <v>0.3</v>
       </c>
-      <c r="C37" s="447"/>
-      <c r="D37" s="440" t="s">
+      <c r="C37" s="417"/>
+      <c r="D37" s="423" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="441"/>
+      <c r="E37" s="424"/>
     </row>
     <row r="38" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="450"/>
-      <c r="B38" s="447">
+      <c r="A38" s="420"/>
+      <c r="B38" s="417">
         <v>0.35</v>
       </c>
-      <c r="C38" s="447"/>
-      <c r="D38" s="440" t="s">
+      <c r="C38" s="417"/>
+      <c r="D38" s="423" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="441"/>
+      <c r="E38" s="424"/>
     </row>
     <row r="39" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="450"/>
-      <c r="B39" s="447">
+      <c r="A39" s="420"/>
+      <c r="B39" s="417">
         <v>0.4</v>
       </c>
-      <c r="C39" s="447"/>
-      <c r="D39" s="440" t="s">
+      <c r="C39" s="417"/>
+      <c r="D39" s="423" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="441"/>
+      <c r="E39" s="424"/>
     </row>
     <row r="40" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="450"/>
-      <c r="B40" s="447">
+      <c r="A40" s="420"/>
+      <c r="B40" s="417">
         <v>0.45</v>
       </c>
-      <c r="C40" s="447"/>
-      <c r="D40" s="440" t="s">
+      <c r="C40" s="417"/>
+      <c r="D40" s="423" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="441"/>
+      <c r="E40" s="424"/>
     </row>
     <row r="41" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="451"/>
-      <c r="B41" s="448">
+      <c r="A41" s="421"/>
+      <c r="B41" s="418">
         <v>0.5</v>
       </c>
-      <c r="C41" s="448"/>
-      <c r="D41" s="445" t="s">
+      <c r="C41" s="418"/>
+      <c r="D41" s="425" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="446"/>
+      <c r="E41" s="426"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="55"/>
@@ -11795,6 +11820,73 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
@@ -11807,73 +11899,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11894,44 +11919,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="460"/>
-      <c r="B1" s="460"/>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
+      <c r="A1" s="461"/>
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="460" t="s">
+      <c r="A2" s="461" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="460"/>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
+      <c r="B2" s="461"/>
+      <c r="C2" s="461"/>
+      <c r="D2" s="461"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="460" t="s">
+      <c r="A3" s="461" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="460"/>
-      <c r="C3" s="460"/>
-      <c r="D3" s="460"/>
+      <c r="B3" s="461"/>
+      <c r="C3" s="461"/>
+      <c r="D3" s="461"/>
     </row>
     <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="462" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
-      <c r="D4" s="461"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
+      <c r="D4" s="462"/>
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="453" t="s">
+      <c r="A5" s="468" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="453"/>
-      <c r="C5" s="462" t="s">
+      <c r="B5" s="468"/>
+      <c r="C5" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="462"/>
+      <c r="D5" s="463"/>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
@@ -12004,14 +12029,14 @@
       <c r="D12" s="87"/>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="453" t="s">
+      <c r="A13" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="453"/>
-      <c r="C13" s="464" t="s">
+      <c r="B13" s="468"/>
+      <c r="C13" s="458" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="464"/>
+      <c r="D13" s="458"/>
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
@@ -12044,261 +12069,251 @@
       <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="453" t="s">
+      <c r="A17" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="453"/>
-      <c r="C17" s="464" t="s">
+      <c r="B17" s="468"/>
+      <c r="C17" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="464"/>
+      <c r="D17" s="458"/>
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="456" t="s">
+      <c r="A18" s="466" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="457"/>
-      <c r="C18" s="465" t="s">
+      <c r="B18" s="467"/>
+      <c r="C18" s="456" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="466"/>
+      <c r="D18" s="457"/>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="454" t="s">
+      <c r="A19" s="464" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="455"/>
-      <c r="C19" s="463" t="s">
+      <c r="B19" s="465"/>
+      <c r="C19" s="455" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="463"/>
+      <c r="D19" s="455"/>
     </row>
     <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="454" t="s">
+      <c r="A20" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="455"/>
-      <c r="C20" s="463" t="s">
+      <c r="B20" s="465"/>
+      <c r="C20" s="455" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="463"/>
+      <c r="D20" s="455"/>
     </row>
     <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="454" t="s">
+      <c r="A21" s="464" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="455"/>
-      <c r="C21" s="463" t="s">
+      <c r="B21" s="465"/>
+      <c r="C21" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="463"/>
+      <c r="D21" s="455"/>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="454" t="s">
+      <c r="A22" s="464" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="455"/>
-      <c r="C22" s="463" t="s">
+      <c r="B22" s="465"/>
+      <c r="C22" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="463"/>
+      <c r="D22" s="455"/>
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="454" t="s">
+      <c r="A23" s="464" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="455"/>
-      <c r="C23" s="463" t="s">
+      <c r="B23" s="465"/>
+      <c r="C23" s="455" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="463"/>
+      <c r="D23" s="455"/>
     </row>
     <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="454" t="s">
+      <c r="A24" s="464" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="455"/>
-      <c r="C24" s="463" t="s">
+      <c r="B24" s="465"/>
+      <c r="C24" s="455" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="463"/>
+      <c r="D24" s="455"/>
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="454" t="s">
+      <c r="A25" s="464" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="455"/>
-      <c r="C25" s="463" t="s">
+      <c r="B25" s="465"/>
+      <c r="C25" s="455" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="463"/>
+      <c r="D25" s="455"/>
     </row>
     <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="454" t="s">
+      <c r="A26" s="464" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="455"/>
-      <c r="C26" s="463" t="s">
+      <c r="B26" s="465"/>
+      <c r="C26" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="463"/>
+      <c r="D26" s="455"/>
     </row>
     <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="458" t="s">
+      <c r="A27" s="459" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="459"/>
-      <c r="C27" s="467" t="s">
+      <c r="B27" s="460"/>
+      <c r="C27" s="453" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="468"/>
+      <c r="D27" s="454"/>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="456" t="s">
+      <c r="A28" s="466" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="457"/>
-      <c r="C28" s="465" t="s">
+      <c r="B28" s="467"/>
+      <c r="C28" s="456" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="466"/>
+      <c r="D28" s="457"/>
     </row>
     <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="454" t="s">
+      <c r="A29" s="464" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="455"/>
-      <c r="C29" s="463" t="s">
+      <c r="B29" s="465"/>
+      <c r="C29" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="463"/>
+      <c r="D29" s="455"/>
     </row>
     <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="454" t="s">
+      <c r="A30" s="464" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="455"/>
-      <c r="C30" s="463" t="s">
+      <c r="B30" s="465"/>
+      <c r="C30" s="455" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="463"/>
+      <c r="D30" s="455"/>
     </row>
     <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="454" t="s">
+      <c r="A31" s="464" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="455"/>
-      <c r="C31" s="463" t="s">
+      <c r="B31" s="465"/>
+      <c r="C31" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="463"/>
+      <c r="D31" s="455"/>
     </row>
     <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="454" t="s">
+      <c r="A32" s="464" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="455"/>
-      <c r="C32" s="463" t="s">
+      <c r="B32" s="465"/>
+      <c r="C32" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="463"/>
+      <c r="D32" s="455"/>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="454" t="s">
+      <c r="A33" s="464" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="455"/>
-      <c r="C33" s="463" t="s">
+      <c r="B33" s="465"/>
+      <c r="C33" s="455" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="463"/>
+      <c r="D33" s="455"/>
     </row>
     <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="454" t="s">
+      <c r="A34" s="464" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="455"/>
-      <c r="C34" s="463" t="s">
+      <c r="B34" s="465"/>
+      <c r="C34" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="463"/>
+      <c r="D34" s="455"/>
     </row>
     <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="454" t="s">
+      <c r="A35" s="464" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="455"/>
-      <c r="C35" s="463" t="s">
+      <c r="B35" s="465"/>
+      <c r="C35" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="463"/>
+      <c r="D35" s="455"/>
     </row>
     <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="454" t="s">
+      <c r="A36" s="464" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="455"/>
-      <c r="C36" s="463" t="s">
+      <c r="B36" s="465"/>
+      <c r="C36" s="455" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="463"/>
+      <c r="D36" s="455"/>
     </row>
     <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="454" t="s">
+      <c r="A37" s="464" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="455"/>
-      <c r="C37" s="463" t="s">
+      <c r="B37" s="465"/>
+      <c r="C37" s="455" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="463"/>
+      <c r="D37" s="455"/>
     </row>
     <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="454" t="s">
+      <c r="A38" s="464" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="455"/>
-      <c r="C38" s="463" t="s">
+      <c r="B38" s="465"/>
+      <c r="C38" s="455" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="463"/>
+      <c r="D38" s="455"/>
     </row>
     <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="458" t="s">
+      <c r="A39" s="459" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="459"/>
-      <c r="C39" s="467" t="s">
+      <c r="B39" s="460"/>
+      <c r="C39" s="453" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="468"/>
+      <c r="D39" s="454"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -12315,20 +12330,30 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12472,7 +12497,7 @@
       </c>
       <c r="P5" s="160">
         <f>+'Step 1'!E104</f>
-        <v>0.97818181818181826</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="Q5" s="161"/>
     </row>
@@ -13953,10 +13978,10 @@
   <dimension ref="B2:F108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14010,7 +14035,7 @@
         <v>125</v>
       </c>
       <c r="E9" s="76">
-        <v>760000</v>
+        <v>109000</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>248</v>
@@ -14021,7 +14046,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="76">
-        <v>330000</v>
+        <v>125000</v>
       </c>
       <c r="F10" s="68" t="s">
         <v>248</v>
@@ -14032,7 +14057,7 @@
         <v>127</v>
       </c>
       <c r="E11" s="76">
-        <v>165000</v>
+        <v>600000</v>
       </c>
       <c r="F11" s="68" t="s">
         <v>248</v>
@@ -14180,9 +14205,7 @@
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="77">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="E32" s="77"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -14194,9 +14217,7 @@
       <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="77">
-        <v>0.65</v>
-      </c>
+      <c r="E33" s="77"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E34" s="77"/>
@@ -14230,7 +14251,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="77">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -14264,9 +14285,7 @@
       <c r="D41" t="s">
         <v>662</v>
       </c>
-      <c r="E41" s="77">
-        <v>1</v>
-      </c>
+      <c r="E41" s="77"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E42" s="77"/>
@@ -14290,9 +14309,7 @@
       <c r="D44" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="77">
-        <v>1</v>
-      </c>
+      <c r="E44" s="77"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E45" s="77"/>
@@ -14325,9 +14342,7 @@
       <c r="D48" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="77">
-        <v>0.8</v>
-      </c>
+      <c r="E48" s="77"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E49" s="77"/>
@@ -14360,9 +14375,7 @@
       <c r="D52" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="77">
-        <v>1</v>
-      </c>
+      <c r="E52" s="77"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E53" s="77"/>
@@ -14378,7 +14391,7 @@
         <v>67</v>
       </c>
       <c r="E54" s="77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>171</v>
@@ -14415,9 +14428,7 @@
       <c r="D58" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="77">
-        <v>0.93</v>
-      </c>
+      <c r="E58" s="77"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C59" s="113">
@@ -14535,9 +14546,7 @@
       <c r="D72" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="77">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="E72" s="77"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
@@ -14591,9 +14600,7 @@
       <c r="D78" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="77">
-        <v>2</v>
-      </c>
+      <c r="E78" s="77"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
@@ -14614,9 +14621,7 @@
       <c r="D81" t="s">
         <v>112</v>
       </c>
-      <c r="E81" s="77">
-        <v>1</v>
-      </c>
+      <c r="E81" s="77"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
@@ -14625,9 +14630,7 @@
       <c r="D82" t="s">
         <v>113</v>
       </c>
-      <c r="E82" s="77">
-        <v>0.9</v>
-      </c>
+      <c r="E82" s="77"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
@@ -14636,9 +14639,7 @@
       <c r="D83" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="77">
-        <v>0.95</v>
-      </c>
+      <c r="E83" s="77"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -14647,9 +14648,7 @@
       <c r="D84" t="s">
         <v>112</v>
       </c>
-      <c r="E84" s="77">
-        <v>0.9</v>
-      </c>
+      <c r="E84" s="77"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
@@ -14658,9 +14657,7 @@
       <c r="D85" t="s">
         <v>112</v>
       </c>
-      <c r="E85" s="77">
-        <v>0.9</v>
-      </c>
+      <c r="E85" s="77"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
@@ -14669,9 +14666,7 @@
       <c r="D86" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="77">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="E86" s="77"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
@@ -14680,9 +14675,7 @@
       <c r="D87" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="77">
-        <v>1</v>
-      </c>
+      <c r="E87" s="77"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
@@ -14691,9 +14684,7 @@
       <c r="D88" t="s">
         <v>116</v>
       </c>
-      <c r="E88" s="77">
-        <v>1</v>
-      </c>
+      <c r="E88" s="77"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
@@ -14702,9 +14693,7 @@
       <c r="D89" t="s">
         <v>112</v>
       </c>
-      <c r="E89" s="77">
-        <v>0.95</v>
-      </c>
+      <c r="E89" s="77"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
@@ -14713,9 +14702,7 @@
       <c r="D90" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="77">
-        <v>0.95</v>
-      </c>
+      <c r="E90" s="77"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
@@ -14724,9 +14711,7 @@
       <c r="D91" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="77">
-        <v>0.95</v>
-      </c>
+      <c r="E91" s="77"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
@@ -14735,9 +14720,7 @@
       <c r="D92" t="s">
         <v>112</v>
       </c>
-      <c r="E92" s="77">
-        <v>0.8</v>
-      </c>
+      <c r="E92" s="77"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
@@ -14746,9 +14729,7 @@
       <c r="D93" t="s">
         <v>117</v>
       </c>
-      <c r="E93" s="77">
-        <v>0.95</v>
-      </c>
+      <c r="E93" s="77"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
@@ -14757,9 +14738,7 @@
       <c r="D94" t="s">
         <v>112</v>
       </c>
-      <c r="E94" s="77">
-        <v>1</v>
-      </c>
+      <c r="E94" s="77"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
@@ -14768,9 +14747,7 @@
       <c r="D95" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="77">
-        <v>1</v>
-      </c>
+      <c r="E95" s="77"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
@@ -14779,9 +14756,7 @@
       <c r="D96" t="s">
         <v>118</v>
       </c>
-      <c r="E96" s="77">
-        <v>1</v>
-      </c>
+      <c r="E96" s="77"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
@@ -14790,9 +14765,7 @@
       <c r="D97" t="s">
         <v>112</v>
       </c>
-      <c r="E97" s="77">
-        <v>1</v>
-      </c>
+      <c r="E97" s="77"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
@@ -14801,9 +14774,7 @@
       <c r="D98" t="s">
         <v>112</v>
       </c>
-      <c r="E98" s="77">
-        <v>0.9</v>
-      </c>
+      <c r="E98" s="77"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
@@ -14812,9 +14783,7 @@
       <c r="D99" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="77">
-        <v>0.9</v>
-      </c>
+      <c r="E99" s="77"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
@@ -14823,9 +14792,7 @@
       <c r="D100" t="s">
         <v>112</v>
       </c>
-      <c r="E100" s="77">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="E100" s="77"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
@@ -14834,9 +14801,7 @@
       <c r="D101" t="s">
         <v>119</v>
       </c>
-      <c r="E101" s="77">
-        <v>1</v>
-      </c>
+      <c r="E101" s="77"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
@@ -14845,9 +14810,7 @@
       <c r="D102" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="77">
-        <v>1</v>
-      </c>
+      <c r="E102" s="77"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
@@ -14855,7 +14818,7 @@
       </c>
       <c r="E104" s="104">
         <f>SUM(E32:E102)/COUNTA(E32:E102)</f>
-        <v>0.97818181818181826</v>
+        <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
@@ -14869,7 +14832,7 @@
       <c r="D106" s="81"/>
       <c r="E106" s="141">
         <f>E104*E25</f>
-        <v>1225203.1585090908</v>
+        <v>1283844.3877499998</v>
       </c>
       <c r="F106" t="s">
         <v>663</v>
@@ -14893,11 +14856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AF3D9-0713-4990-9E33-0B6A6EAEFFE5}">
   <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -14973,7 +14936,9 @@
       <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="313"/>
+      <c r="C15" s="469">
+        <v>300000</v>
+      </c>
       <c r="D15" s="314" t="e">
         <f>C15/C10</f>
         <v>#DIV/0!</v>
@@ -15006,13 +14971,12 @@
       <c r="B20" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="138">
-        <f>+C21*C22</f>
-        <v>613480</v>
-      </c>
-      <c r="D20" s="314" t="e">
+      <c r="C20" s="469">
+        <v>400000</v>
+      </c>
+      <c r="D20" s="314">
         <f>C20/C15</f>
-        <v>#DIV/0!</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -15046,13 +15010,12 @@
       <c r="B25" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="138">
-        <f>+C26*C27</f>
-        <v>429436</v>
+      <c r="C25" s="469">
+        <v>300000</v>
       </c>
       <c r="D25" s="314">
         <f>C25/C20</f>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -15087,13 +15050,12 @@
       <c r="B30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="138">
-        <f>+C31*C32</f>
-        <v>1252000</v>
+      <c r="C30" s="469">
+        <v>587000</v>
       </c>
       <c r="D30" s="314">
         <f>C30/C25</f>
-        <v>2.9154518950437316</v>
+        <v>1.9566666666666668</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -15126,7 +15088,7 @@
       </c>
       <c r="C35" s="138">
         <f>+C30*$C$7</f>
-        <v>876400</v>
+        <v>410900</v>
       </c>
       <c r="D35" s="314">
         <f>C35/C30</f>
@@ -15139,7 +15101,7 @@
       </c>
       <c r="C36" s="76">
         <f>C35/10</f>
-        <v>87640</v>
+        <v>41090</v>
       </c>
       <c r="D36" t="s">
         <v>154</v>
@@ -15253,7 +15215,7 @@
       </c>
       <c r="C11" s="119">
         <f>'Step 2'!C20</f>
-        <v>613480</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -15262,7 +15224,7 @@
       </c>
       <c r="C12" s="125">
         <f>C9*C11</f>
-        <v>182010.55871063517</v>
+        <v>118674.15968614147</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -15336,20 +15298,20 @@
       </c>
       <c r="G16" s="121">
         <f t="shared" ref="G16:G18" si="2">G17</f>
-        <v>0.97818181818181826</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="H16" s="122">
         <f>F16*G16</f>
-        <v>363499.8882021819</v>
+        <v>380897.88471000001</v>
       </c>
       <c r="I16" s="111"/>
       <c r="J16" s="135">
         <f>+'Step 2'!C35</f>
-        <v>876400</v>
+        <v>410900</v>
       </c>
       <c r="K16" s="123">
         <f>E16/$E$19*$J$19</f>
-        <v>182010.55871063517</v>
+        <v>118674.15968614147</v>
       </c>
       <c r="L16" s="105"/>
       <c r="N16" s="105"/>
@@ -15381,20 +15343,20 @@
       </c>
       <c r="G17" s="121">
         <f t="shared" si="2"/>
-        <v>0.97818181818181826</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="H17" s="122">
         <f t="shared" ref="H17:H19" si="3">F17*G17</f>
-        <v>430997.13696000009</v>
+        <v>451625.71740000002</v>
       </c>
       <c r="I17" s="111"/>
       <c r="J17" s="135">
         <f>+'Step 2'!C30</f>
-        <v>1252000</v>
+        <v>587000</v>
       </c>
       <c r="K17" s="124">
         <f>E17/$E$19*$J$19</f>
-        <v>215807.57586682224</v>
+        <v>140710.42307284492</v>
       </c>
       <c r="L17" s="126"/>
       <c r="N17" s="105"/>
@@ -15426,20 +15388,20 @@
       </c>
       <c r="G18" s="121">
         <f t="shared" si="2"/>
-        <v>0.97818181818181826</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="H18" s="122">
         <f t="shared" si="3"/>
-        <v>672686.03061818203</v>
+        <v>704882.43450000009</v>
       </c>
       <c r="I18" s="111"/>
       <c r="J18" s="135">
         <f>+'Step 2'!C25</f>
-        <v>429436</v>
+        <v>300000</v>
       </c>
       <c r="K18" s="124">
         <f>E18/$E$19*$J$19</f>
-        <v>336825.30378538871</v>
+        <v>219616.1594740749</v>
       </c>
       <c r="L18" s="126"/>
       <c r="N18" s="105"/>
@@ -15471,20 +15433,20 @@
       </c>
       <c r="G19" s="121">
         <f>+'Step 1'!E104</f>
-        <v>0.97818181818181826</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="H19" s="122">
         <f t="shared" si="3"/>
-        <v>1225203.1585090908</v>
+        <v>1283844.3877499998</v>
       </c>
       <c r="I19" s="111"/>
       <c r="J19" s="135">
         <f>+'Step 2'!C20</f>
-        <v>613480</v>
+        <v>400000</v>
       </c>
       <c r="K19" s="124">
         <f>E19/$E$19*$J$19</f>
-        <v>613480</v>
+        <v>400000</v>
       </c>
       <c r="L19" s="126"/>
       <c r="N19" s="105"/>
@@ -15551,7 +15513,7 @@
       <c r="I23" s="130"/>
       <c r="J23" s="131">
         <f>+SUM(J16:J21)</f>
-        <v>3171316</v>
+        <v>1697900</v>
       </c>
       <c r="K23" s="130"/>
     </row>
@@ -15728,7 +15690,7 @@
       </c>
       <c r="B6" s="330">
         <f>ROUND('XS Rating Step A Inputs'!B8/('XS Rating Step A Inputs'!B10/1000000),0)</f>
-        <v>62600</v>
+        <v>29350</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -15737,7 +15699,7 @@
       </c>
       <c r="B8" s="317">
         <f>'XS Rating Step A Inputs'!B34</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15768,7 +15730,7 @@
       </c>
       <c r="B14" s="333">
         <f>+B6</f>
-        <v>62600</v>
+        <v>29350</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -15831,7 +15793,7 @@
       </c>
       <c r="B21" s="384">
         <f>B14*B15*B16*B17*B18*B19*B20</f>
-        <v>782500</v>
+        <v>366875</v>
       </c>
       <c r="C21" s="382" t="s">
         <v>643</v>
@@ -15843,7 +15805,7 @@
       </c>
       <c r="B22" s="380">
         <f>ROUND(B6*('XS Rating Step A Inputs'!B12/1000000)*B10*IF('XS Rating Step B-F Inputs'!B15="",1,'XS Rating Step B-F Inputs'!B15)*IF('XS Rating Step B-F Inputs'!B20="",1,'XS Rating Step B-F Inputs'!B20)*(1-'XS Rating Step B-F Inputs'!B25)*(1+'XS Final Premium Calculation'!B12),0)</f>
-        <v>782500</v>
+        <v>366875</v>
       </c>
       <c r="C22" s="381">
         <f>+B22-B21</f>
@@ -15901,7 +15863,7 @@
       </c>
       <c r="B30" s="387">
         <f>IF(OR(B22&gt;B24,B22=B24),B22*B26,"N/A")</f>
-        <v>782500</v>
+        <v>366875</v>
       </c>
       <c r="C30" s="378">
         <f>+B30-B31</f>
@@ -15914,7 +15876,7 @@
       </c>
       <c r="B31" s="334">
         <f>IF(AND('XS Rating Step B-F Inputs'!B9="",'XS Rating Step B-F Inputs'!B10=""),ROUND(IF(B22&lt;B24,B24,B22),0),ROUND(IF(B22&lt;B24,B24*MAX('XS Rating Step B-F Inputs'!B9,'XS Rating Step B-F Inputs'!B10),B22*MAX('XS Rating Step B-F Inputs'!B9,'XS Rating Step B-F Inputs'!B10)),0))</f>
-        <v>782500</v>
+        <v>366875</v>
       </c>
       <c r="E31" s="368"/>
     </row>
@@ -15955,7 +15917,7 @@
       </c>
       <c r="B36" s="334">
         <f>+B31*(1+B34+B35)</f>
-        <v>790325</v>
+        <v>370543.75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -16394,7 +16356,7 @@
       </c>
       <c r="J36" s="243">
         <f>LEFT('XS Rating Step A Inputs'!C38,2)/100</f>
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -16408,7 +16370,7 @@
       </c>
       <c r="J37" s="243">
         <f>MID('XS Rating Step A Inputs'!C38,4,2)/100</f>
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -17287,7 +17249,9 @@
   </sheetPr>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17567,7 +17531,7 @@
       </c>
       <c r="J23" s="243">
         <f>LEFT('XS Rating Step A Inputs'!C38,2)/100</f>
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -17578,7 +17542,7 @@
       </c>
       <c r="J24" s="243">
         <f>MID('XS Rating Step A Inputs'!C38,4,2)/100</f>
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -18030,7 +17994,7 @@
   </sheetPr>
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
